--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76123.46114645457</v>
+        <v>14027592.75742131</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76123.46114645457</v>
+        <v>14027592.75742131</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1887.512944773536</v>
+        <v>150454.2275826149</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1887.512944773536</v>
+        <v>150454.2275826149</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036200351.21059</v>
+        <v>42903693.50675567</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9096.415317137033</v>
+        <v>1038551.553241364</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16955.48636329801</v>
+        <v>1886918.722877555</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24814.55740945896</v>
+        <v>2735285.892513747</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32761.21086604408</v>
+        <v>3589308.298341549</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40680.85987818474</v>
+        <v>4437956.819724905</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48143.90860751044</v>
+        <v>5264874.894995514</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>55811.96154544692</v>
+        <v>6113523.416378867</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>63480.01448338339</v>
+        <v>6962171.937762218</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>71139.32878248757</v>
+        <v>7810427.213620951</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>78801.50763826966</v>
+        <v>8659148.159154203</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>86169.73076420775</v>
+        <v>9473147.292657085</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>93868.77937566958</v>
+        <v>10321389.63154131</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>101366.6150282647</v>
+        <v>11169728.2632575</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>109060.592669196</v>
+        <v>12008018.78374142</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>116787.0205985033</v>
+        <v>12847711.62177278</v>
       </c>
     </row>
   </sheetData>
@@ -27040,31 +27040,31 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>386</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>387</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>24</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>315</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
